--- a/data/excel_files/월_실업률.xlsx
+++ b/data/excel_files/월_실업률.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E830A8-C006-CA49-8A09-F100BFB75555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6639B234-CCCE-6C4B-A0A0-36E750A0D41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2760" windowWidth="27900" windowHeight="16940" xr2:uid="{6004745E-29AF-2C42-A535-23AFC6D433B6}"/>
+    <workbookView xWindow="14140" yWindow="6900" windowWidth="27900" windowHeight="16940" xr2:uid="{6004745E-29AF-2C42-A535-23AFC6D433B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C7BF8-0B5C-7844-B218-5669FE09888E}">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B210"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2094,6 +2094,62 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B211">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B212">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B213">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B214">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B215">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B216">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B217">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
